--- a/jpcore-r4/feature/swg2-physicalexam/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/feature/swg2-physicalexam/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="341">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-03T22:57:55+00:00</t>
+    <t>2022-09-09T22:32:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -291,7 +291,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -987,6 +987,10 @@
   </si>
   <si>
     <t>DiagnosticReport.media.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -4326,13 +4330,13 @@
         <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>90</v>
+        <v>294</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4383,7 +4387,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4404,7 +4408,7 @@
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
@@ -4412,7 +4416,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4441,7 +4445,7 @@
         <v>135</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>137</v>
@@ -4494,7 +4498,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4515,7 +4519,7 @@
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
@@ -4523,11 +4527,11 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4549,10 +4553,10 @@
         <v>134</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>137</v>
@@ -4607,7 +4611,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4636,7 +4640,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4659,19 +4663,19 @@
         <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>90</v>
+        <v>294</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -4720,7 +4724,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -4741,7 +4745,7 @@
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -4749,7 +4753,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4772,16 +4776,16 @@
         <v>89</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4831,7 +4835,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>88</v>
@@ -4852,7 +4856,7 @@
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -4860,11 +4864,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4883,19 +4887,19 @@
         <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>90</v>
+        <v>294</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
@@ -4944,7 +4948,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -4962,10 +4966,10 @@
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -4973,7 +4977,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4999,13 +5003,13 @@
         <v>180</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5034,10 +5038,10 @@
         <v>185</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
@@ -5055,7 +5059,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5073,10 +5077,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5084,7 +5088,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5107,19 +5111,19 @@
         <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -5168,7 +5172,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5186,10 +5190,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
